--- a/VersionRecords/Version3.0.3/BS权限配置/新增权限配置表.xlsx
+++ b/VersionRecords/Version3.0.3/BS权限配置/新增权限配置表.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\BS权限配置\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,13 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>级别</t>
   </si>
@@ -77,6 +73,73 @@
   </si>
   <si>
     <t>租金宝统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理--提现管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct/findWithdrawList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct/queryWithdrawList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理--提现管理--提现列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理--提现管理--提现列表-查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理--提现管理--提现列表-重新连接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新连接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct/reConnection</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +343,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,7 +655,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,47 +723,109 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1153,7 +1281,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
